--- a/RADLIFE.xlsx
+++ b/RADLIFE.xlsx
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Enter in the number of each type of NFT held on each date of snapshot. </t>
   </si>
   <si>
-    <t>If none were held it must read the box must have a zero or the maths wont work.</t>
+    <t>If none were held box must have a zero or the maths wont work.</t>
   </si>
   <si>
     <t>DATE OF</t>
